--- a/src/Inputs.xlsx
+++ b/src/Inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan.Cope\Desktop\Dev\coperyan\Personal-Budget-Tool\Personal-Budget-Tool\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan.Cope\Desktop\Dev\coperyan\Personal-Budget-Tool\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16405F72-91F8-4238-9ED2-7C0E48CC3A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63704355-BB65-4C42-90E5-27D5AB2EBF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{CF5C0A21-8730-41CA-B5E3-AE31EC8439E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{CF5C0A21-8730-41CA-B5E3-AE31EC8439E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget Items" sheetId="2" r:id="rId1"/>
@@ -709,7 +709,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,6 +744,12 @@
       <b/>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -838,7 +844,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -889,6 +895,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -899,6 +908,11 @@
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{1858567C-0C12-44E8-9205-064F005A7044}"/>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1207,30 +1221,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0743AD-C129-4A03-8516-12876BBCA2B5}">
-  <dimension ref="B2:P605"/>
+  <dimension ref="B2:Q605"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="16.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="31.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="28.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="31.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="28.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="23.5703125" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" style="17" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="22.140625" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="20.140625" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="20.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="66.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="22.140625" style="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="22.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="20.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="20.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="66.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9.140625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1287,13 +1302,13 @@
       <c r="C3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="20" t="s">
         <v>94</v>
       </c>
       <c r="G3" s="4" t="str">
@@ -1330,13 +1345,13 @@
       <c r="C4" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="20" t="s">
         <v>49</v>
       </c>
       <c r="G4" s="4" t="str">
@@ -1374,13 +1389,13 @@
       <c r="C5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="20" t="s">
         <v>116</v>
       </c>
       <c r="G5" s="4" t="str">
@@ -1418,13 +1433,13 @@
       <c r="C6" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="20" t="s">
         <v>172</v>
       </c>
       <c r="G6" s="4" t="str">
@@ -1462,13 +1477,13 @@
       <c r="C7" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="20" t="s">
         <v>63</v>
       </c>
       <c r="G7" s="4" t="str">
@@ -1505,13 +1520,13 @@
       <c r="C8" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="20" t="s">
         <v>174</v>
       </c>
       <c r="G8" s="4" t="str">
@@ -1549,13 +1564,13 @@
       <c r="C9" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="20" t="s">
         <v>88</v>
       </c>
       <c r="G9" s="4" t="str">
@@ -1590,13 +1605,13 @@
       <c r="C10" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="20" t="s">
         <v>73</v>
       </c>
       <c r="G10" s="4" t="str">
@@ -1631,13 +1646,13 @@
       <c r="C11" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="20" t="s">
         <v>88</v>
       </c>
       <c r="G11" s="4" t="str">
@@ -1672,13 +1687,13 @@
       <c r="C12" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="20" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="4" t="str">
@@ -1713,13 +1728,13 @@
       <c r="C13" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="20" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="4" t="str">
@@ -1754,13 +1769,13 @@
       <c r="C14" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="20" t="s">
         <v>87</v>
       </c>
       <c r="G14" s="4" t="str">
@@ -1795,13 +1810,13 @@
       <c r="C15" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="20" t="s">
         <v>179</v>
       </c>
       <c r="G15" s="4" t="str">
@@ -1836,13 +1851,13 @@
       <c r="C16" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="20" t="s">
         <v>123</v>
       </c>
       <c r="G16" s="4" t="str">
@@ -1877,13 +1892,13 @@
       <c r="C17" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="20" t="s">
         <v>46</v>
       </c>
       <c r="G17" s="4" t="str">
@@ -1922,13 +1937,13 @@
       <c r="C18" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="20" t="s">
         <v>123</v>
       </c>
       <c r="G18" s="4" t="str">
@@ -1963,13 +1978,13 @@
       <c r="C19" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="20" t="s">
         <v>93</v>
       </c>
       <c r="G19" s="4" t="str">
@@ -2002,13 +2017,13 @@
       <c r="C20" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="20" t="s">
         <v>57</v>
       </c>
       <c r="G20" s="4" t="str">
@@ -2041,13 +2056,13 @@
       <c r="C21" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="20" t="s">
         <v>60</v>
       </c>
       <c r="G21" s="4" t="str">
@@ -2082,13 +2097,13 @@
       <c r="C22" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="20" t="s">
         <v>61</v>
       </c>
       <c r="G22" s="4" t="str">
@@ -2123,13 +2138,13 @@
       <c r="C23" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="20" t="s">
         <v>54</v>
       </c>
       <c r="G23" s="4" t="str">
@@ -2162,13 +2177,13 @@
       <c r="C24" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="20" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="4" t="str">
@@ -2201,13 +2216,13 @@
       <c r="C25" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="20" t="s">
         <v>70</v>
       </c>
       <c r="G25" s="4" t="str">
@@ -2240,13 +2255,13 @@
       <c r="C26" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="20" t="s">
         <v>179</v>
       </c>
       <c r="G26" s="4" t="str">
@@ -2281,13 +2296,13 @@
       <c r="C27" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="20" t="s">
         <v>179</v>
       </c>
       <c r="G27" s="4" t="str">
@@ -2322,13 +2337,13 @@
       <c r="C28" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="20" t="s">
         <v>179</v>
       </c>
       <c r="G28" s="4" t="str">
@@ -2363,13 +2378,13 @@
       <c r="C29" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="20" t="s">
         <v>179</v>
       </c>
       <c r="G29" s="4" t="str">
@@ -2404,13 +2419,13 @@
       <c r="C30" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="20" t="s">
         <v>179</v>
       </c>
       <c r="G30" s="4" t="str">
@@ -2445,13 +2460,13 @@
       <c r="C31" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="20" t="s">
         <v>179</v>
       </c>
       <c r="G31" s="4" t="str">
@@ -2486,13 +2501,13 @@
       <c r="C32" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="20" t="s">
         <v>179</v>
       </c>
       <c r="G32" s="4" t="str">
@@ -2527,13 +2542,13 @@
       <c r="C33" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="20" t="s">
         <v>43</v>
       </c>
       <c r="G33" s="4" t="str">

--- a/src/Inputs.xlsx
+++ b/src/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan.Cope\Desktop\Dev\coperyan\Personal-Budget-Tool\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63704355-BB65-4C42-90E5-27D5AB2EBF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1007E2-BA97-4B49-B543-C7FF649AFAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{CF5C0A21-8730-41CA-B5E3-AE31EC8439E2}"/>
+    <workbookView xWindow="3510" yWindow="2565" windowWidth="33090" windowHeight="15345" xr2:uid="{CF5C0A21-8730-41CA-B5E3-AE31EC8439E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget Items" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="218">
   <si>
     <t>Category</t>
   </si>
@@ -699,6 +699,9 @@
   <si>
     <t>Misc.</t>
   </si>
+  <si>
+    <t>Rolls Royce</t>
+  </si>
 </sst>
 </file>
 
@@ -895,7 +898,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1223,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0743AD-C129-4A03-8516-12876BBCA2B5}">
   <dimension ref="B2:Q605"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2579,26 +2582,42 @@
       <c r="O33" s="9"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G34" s="4" t="str">
         <f>IFERROR(VLOOKUP($F34,Categories!$B:$E,2,FALSE),"")</f>
-        <v/>
+        <v>Auto &amp; Transport</v>
       </c>
       <c r="H34" s="4" t="str">
         <f>IFERROR(VLOOKUP(G34,Categories!$I:$J,2,FALSE),"")</f>
-        <v/>
+        <v>Auto &amp; Transport</v>
       </c>
       <c r="I34" s="4" t="str">
         <f>IFERROR(VLOOKUP($F34,Categories!$B:$E,4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
+        <v>Expense</v>
+      </c>
+      <c r="J34" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1</v>
+      </c>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
